--- a/biology/Botanique/Trichocentrum_splendidum/Trichocentrum_splendidum.xlsx
+++ b/biology/Botanique/Trichocentrum_splendidum/Trichocentrum_splendidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichocentrum splendidum est une espèce de plantes à fleurs de la familles des orchidaceae (les orchidées) et du genre Trichocentrum. Cette espèce est endémique du Honduras et du Guatemala
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon NCBI :
 Trichocentrum splendidum (A.Rich. ex Duch.) M.W.Chase &amp; N.H.Williams
@@ -545,7 +559,9 @@
           <t>Orangerie du jardin du Luxembourg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orangerie du Jardin du Luxembourg de Paris détient un certain nombre de spécimens depuis de nombreuses années. Trichocentrum splendidum, ainsi qu'un certain nombre d'autres espèces détenues par l'Orangerie, sont périodiquement présentées et exposées à la visite du public.
 </t>
